--- a/calculator-backend/Endpoints.xlsx
+++ b/calculator-backend/Endpoints.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="80">
   <si>
     <t>HTTP 
 Method</t>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>GET</t>
-  </si>
-  <si>
-    <t>/users</t>
   </si>
   <si>
     <t>Body:Empty</t>
@@ -66,9 +63,6 @@
 User id</t>
   </si>
   <si>
-    <t>Creates a new User</t>
-  </si>
-  <si>
     <t>/users/{userId}</t>
   </si>
   <si>
@@ -172,13 +166,128 @@
   </si>
   <si>
     <t>getUser</t>
+  </si>
+  <si>
+    <t>Allowed operations on Registration resourse</t>
+  </si>
+  <si>
+    <t>/user/registration</t>
+  </si>
+  <si>
+    <t>/registrationConfirm</t>
+  </si>
+  <si>
+    <t>/user/resendRegistrationToken</t>
+  </si>
+  <si>
+    <t>/user/resetPassword</t>
+  </si>
+  <si>
+    <t>/user/changePassword</t>
+  </si>
+  <si>
+    <t>/user/savePassword</t>
+  </si>
+  <si>
+    <t>/user/updatePassword</t>
+  </si>
+  <si>
+    <t>/user/update/2fa</t>
+  </si>
+  <si>
+    <t>registerUserAccount</t>
+  </si>
+  <si>
+    <t>Try to register a new User</t>
+  </si>
+  <si>
+    <t>confirmRegistration</t>
+  </si>
+  <si>
+    <t>resendRegistrationToken</t>
+  </si>
+  <si>
+    <t>resetPassword</t>
+  </si>
+  <si>
+    <t>showChangePasswordPage</t>
+  </si>
+  <si>
+    <t>savePassword</t>
+  </si>
+  <si>
+    <t>changeUserPassword</t>
+  </si>
+  <si>
+    <t>modifyUser2FA</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>Save User password
+Given only new password</t>
+  </si>
+  <si>
+    <t>Change User password
+Given new password, old password</t>
+  </si>
+  <si>
+    <t>Removed</t>
+  </si>
+  <si>
+    <t>Switch user auth mod to 2fa.</t>
+  </si>
+  <si>
+    <t>Body: boolean value</t>
+  </si>
+  <si>
+    <t>Status: 201
+Body:auth URL</t>
+  </si>
+  <si>
+    <t>Body: Password DTO</t>
+  </si>
+  <si>
+    <t>Status:400</t>
+  </si>
+  <si>
+    <t>Status:404</t>
+  </si>
+  <si>
+    <t>Body: User Email</t>
+  </si>
+  <si>
+    <t>Reset password. Sends user email with link to change password</t>
+  </si>
+  <si>
+    <t>user activation - verification. 
+Sends Email to user with registration conformation</t>
+  </si>
+  <si>
+    <t>Body: Token</t>
+  </si>
+  <si>
+    <t>Status: 201
+Body: Message Email sent</t>
+  </si>
+  <si>
+    <t>Body: New 
+account Dto</t>
+  </si>
+  <si>
+    <t>Status: 201
+Body: Success message</t>
+  </si>
+  <si>
+    <t>Переписать?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,8 +305,23 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,8 +334,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -243,11 +373,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -286,6 +427,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -616,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G42"/>
+  <dimension ref="A2:H43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -631,14 +787,15 @@
     <col min="5" max="5" width="21.85546875" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -646,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>2</v>
@@ -661,74 +818,74 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="F4" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="G4" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>10</v>
-      </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -737,7 +894,7 @@
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -746,7 +903,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="13"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -755,8 +912,10 @@
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>44</v>
+      </c>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -764,103 +923,219 @@
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
     </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+    <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12" t="s">
+      <c r="E13" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="11" t="s">
+      <c r="F13" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="B15" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="G16" s="18" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="E19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
@@ -868,186 +1143,186 @@
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B22" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3" t="s">
+      <c r="C22" s="2"/>
+      <c r="D22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G22" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G22" s="12" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="11"/>
+      <c r="B23" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="12"/>
       <c r="D23" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E23" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-    </row>
-    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3" t="s">
+      <c r="C27" s="2"/>
+      <c r="D27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F27" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C28" s="12"/>
+      <c r="B28" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" s="11"/>
       <c r="D28" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E28" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="F28" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="E30" s="12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="12" t="s">
+      <c r="F30" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G29" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
-        <v>32</v>
-      </c>
+      <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -1055,35 +1330,37 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="11" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B33" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G32" s="11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
@@ -1165,6 +1442,15 @@
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
